--- a/Reboots(19th-22nd).xlsx
+++ b/Reboots(19th-22nd).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e788a6c2c51d51d/Desktop/Internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{944E5457-3AA3-44C1-B72F-7A966B12F8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20431696-145E-408B-B809-979ACC238E8C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{944E5457-3AA3-44C1-B72F-7A966B12F8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EBC28B-D3AA-4343-81A6-EC82EDAD2E34}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14448CA8-9E29-4F8E-A734-DBAF4F03E217}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="691">
   <si>
     <t>07/21/2024, 14:36:34</t>
   </si>
@@ -1683,20 +1684,428 @@
     <t>07/23/2024, 16:37:42</t>
   </si>
   <si>
-    <t>78+75</t>
-  </si>
-  <si>
     <t>Reboot observed for 229 times</t>
   </si>
   <si>
     <t>Reboots observed on 24th July</t>
+  </si>
+  <si>
+    <t>07/25/2024, 15:38:55</t>
+  </si>
+  <si>
+    <t>07/25/2024, 15:38:32</t>
+  </si>
+  <si>
+    <t>Soko Island</t>
+  </si>
+  <si>
+    <t>ES1K43ACBAA002310</t>
+  </si>
+  <si>
+    <t>07/25/2024, 15:31:12</t>
+  </si>
+  <si>
+    <t>07/25/2024, 15:18:42</t>
+  </si>
+  <si>
+    <t>DON ANTONIO</t>
+  </si>
+  <si>
+    <t>EF1K43ABBAA000298</t>
+  </si>
+  <si>
+    <t>07/25/2024, 14:58:54</t>
+  </si>
+  <si>
+    <t>07/25/2024, 14:47:59</t>
+  </si>
+  <si>
+    <t>07/25/2024, 14:47:11</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000349</t>
+  </si>
+  <si>
+    <t>07/25/2024, 14:18:00</t>
+  </si>
+  <si>
+    <t>Pedro Ship</t>
+  </si>
+  <si>
+    <t>ES1K38AABAA001740</t>
+  </si>
+  <si>
+    <t>07/25/2024, 14:12:03</t>
+  </si>
+  <si>
+    <t>Stockham</t>
+  </si>
+  <si>
+    <t>ES1K39AABAA001838</t>
+  </si>
+  <si>
+    <t>07/25/2024, 13:57:32</t>
+  </si>
+  <si>
+    <t>07/25/2024, 13:40:16</t>
+  </si>
+  <si>
+    <t>07/25/2024, 13:37:49</t>
+  </si>
+  <si>
+    <t>07/25/2024, 13:27:28</t>
+  </si>
+  <si>
+    <t>07/25/2024, 13:21:24</t>
+  </si>
+  <si>
+    <t>07/25/2024, 12:45:48</t>
+  </si>
+  <si>
+    <t>07/25/2024, 12:28:31</t>
+  </si>
+  <si>
+    <t>KsLab-Demo3</t>
+  </si>
+  <si>
+    <t>ES1K3CAABAA002017</t>
+  </si>
+  <si>
+    <t>07/25/2024, 11:25:13</t>
+  </si>
+  <si>
+    <t>07/25/2024, 11:15:26</t>
+  </si>
+  <si>
+    <t>SSFZC - OFFICE DEMO</t>
+  </si>
+  <si>
+    <t>ES1K3CAABAA002010</t>
+  </si>
+  <si>
+    <t>07/25/2024, 10:54:44</t>
+  </si>
+  <si>
+    <t>Stornoway</t>
+  </si>
+  <si>
+    <t>ES1K42AABAA002250</t>
+  </si>
+  <si>
+    <t>07/25/2024, 10:38:18</t>
+  </si>
+  <si>
+    <t>07/25/2024, 10:25:42</t>
+  </si>
+  <si>
+    <t>07/25/2024, 09:36:36</t>
+  </si>
+  <si>
+    <t>VIASAT-TYPHOON-Maya-ES1204</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001204</t>
+  </si>
+  <si>
+    <t>07/25/2024, 09:31:02</t>
+  </si>
+  <si>
+    <t>MY-All INN</t>
+  </si>
+  <si>
+    <t>NB1K22AAAAA000113</t>
+  </si>
+  <si>
+    <t>07/25/2024, 09:30:09</t>
+  </si>
+  <si>
+    <t>VIASAT-TYPHOON-Implementer-ES1205</t>
+  </si>
+  <si>
+    <t>ES1K34AABAA001205</t>
+  </si>
+  <si>
+    <t>07/25/2024, 08:37:09</t>
+  </si>
+  <si>
+    <t>SCION MATHILDA</t>
+  </si>
+  <si>
+    <t>ES1K43ACBAA002293</t>
+  </si>
+  <si>
+    <t>07/25/2024, 07:54:04</t>
+  </si>
+  <si>
+    <t>07/25/2024, 07:52:59</t>
+  </si>
+  <si>
+    <t>Zogi</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000315</t>
+  </si>
+  <si>
+    <t>07/25/2024, 07:10:09</t>
+  </si>
+  <si>
+    <t>07/25/2024, 06:34:41</t>
+  </si>
+  <si>
+    <t>Grampian Calgary</t>
+  </si>
+  <si>
+    <t>ES1K3BAABAA001938</t>
+  </si>
+  <si>
+    <t>07/25/2024, 05:35:42</t>
+  </si>
+  <si>
+    <t>ALLIANCE-Miami-ES152</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000152</t>
+  </si>
+  <si>
+    <t>07/25/2024, 04:55:14</t>
+  </si>
+  <si>
+    <t>07/25/2024, 04:34:26</t>
+  </si>
+  <si>
+    <t>GUICE-GOExplorer-ES182</t>
+  </si>
+  <si>
+    <t>ES1K2BAAAAA000182</t>
+  </si>
+  <si>
+    <t>07/25/2024, 03:34:03</t>
+  </si>
+  <si>
+    <t>07/25/2024, 03:15:44</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001530</t>
+  </si>
+  <si>
+    <t>07/25/2024, 02:44:05</t>
+  </si>
+  <si>
+    <t>07/25/2024, 02:40:06</t>
+  </si>
+  <si>
+    <t>07/25/2024, 02:05:50</t>
+  </si>
+  <si>
+    <t>TCCA STEVE</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001686</t>
+  </si>
+  <si>
+    <t>07/25/2024, 01:48:43</t>
+  </si>
+  <si>
+    <t>Cepheus</t>
+  </si>
+  <si>
+    <t>ES1K3BAABAA001963</t>
+  </si>
+  <si>
+    <t>07/25/2024, 01:40:32</t>
+  </si>
+  <si>
+    <t>07/25/2024, 01:10:27</t>
+  </si>
+  <si>
+    <t>07/25/2024, 00:57:06</t>
+  </si>
+  <si>
+    <t>Tanja Site</t>
+  </si>
+  <si>
+    <t>ES1K3CAABAA002035</t>
+  </si>
+  <si>
+    <t>07/25/2024, 00:23:20</t>
+  </si>
+  <si>
+    <t>Jorge_Mario</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001562</t>
+  </si>
+  <si>
+    <t>07/25/2024, 00:15:36</t>
+  </si>
+  <si>
+    <t>SJOVIND</t>
+  </si>
+  <si>
+    <t>ES1K35AABAA001304</t>
+  </si>
+  <si>
+    <t>07/24/2024, 23:56:46</t>
+  </si>
+  <si>
+    <t>07/24/2024, 23:31:52</t>
+  </si>
+  <si>
+    <t>07/24/2024, 23:27:32</t>
+  </si>
+  <si>
+    <t>07/24/2024, 23:13:56</t>
+  </si>
+  <si>
+    <t>07/24/2024, 23:00:32</t>
+  </si>
+  <si>
+    <t>07/24/2024, 22:36:27</t>
+  </si>
+  <si>
+    <t>Miss Stephanie</t>
+  </si>
+  <si>
+    <t>ES1K33AABAA001074</t>
+  </si>
+  <si>
+    <t>07/24/2024, 22:20:13</t>
+  </si>
+  <si>
+    <t>SD005 WFO_MP296C_Starlink</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001569</t>
+  </si>
+  <si>
+    <t>07/24/2024, 21:44:34</t>
+  </si>
+  <si>
+    <t>OSG Office Demo</t>
+  </si>
+  <si>
+    <t>ES1K45ADBAA002805</t>
+  </si>
+  <si>
+    <t>07/24/2024, 21:34:44</t>
+  </si>
+  <si>
+    <t>Lummus</t>
+  </si>
+  <si>
+    <t>ES1K37AABAA001544</t>
+  </si>
+  <si>
+    <t>07/24/2024, 21:18:27</t>
+  </si>
+  <si>
+    <t>07/24/2024, 21:07:17</t>
+  </si>
+  <si>
+    <t>07/24/2024, 21:04:41</t>
+  </si>
+  <si>
+    <t>07/24/2024, 20:22:19</t>
+  </si>
+  <si>
+    <t>07/24/2024, 20:09:30</t>
+  </si>
+  <si>
+    <t>07/24/2024, 20:01:19</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:56:36</t>
+  </si>
+  <si>
+    <t>ALLIANCE-ALLIANCE I-EF334</t>
+  </si>
+  <si>
+    <t>EF1K43ABCAA000334</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:54:54</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:30:44</t>
+  </si>
+  <si>
+    <t>KU DemoFit000187</t>
+  </si>
+  <si>
+    <t>EF1K3AABBAA000187</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:15:07</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:11:32</t>
+  </si>
+  <si>
+    <t>07/24/2024, 19:08:14</t>
+  </si>
+  <si>
+    <t>ODYSSEA-Valor-EA47</t>
+  </si>
+  <si>
+    <t>SK1K31AABAA002013</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:45:59</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:42:01</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:40:58</t>
+  </si>
+  <si>
+    <t>Miss Christine</t>
+  </si>
+  <si>
+    <t>ES1K41AABAA002050</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:35:23</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:16:49</t>
+  </si>
+  <si>
+    <t>07/24/2024, 17:05:15</t>
+  </si>
+  <si>
+    <t>07/24/2024, 16:57:26</t>
+  </si>
+  <si>
+    <t>07/24/2024, 16:52:02</t>
+  </si>
+  <si>
+    <t>07/24/2024, 16:40:39</t>
+  </si>
+  <si>
+    <t>07/24/2024, 16:14:56</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>ES1K41AABAA002048</t>
+  </si>
+  <si>
+    <t>Reboots observed on 25th July</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,6 +2135,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF45464E"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color rgb="FF45464E"/>
       <name val="Inter"/>
     </font>
@@ -1777,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,11 +2212,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1815,11 +2252,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1870,96 +2377,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2313,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936BA5A9-36FA-4F93-B82D-6FF69D316564}">
-  <dimension ref="A1:H611"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="D384" sqref="D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7657,7 +8074,7 @@
     </row>
     <row r="334" spans="1:8" ht="15" thickBot="1">
       <c r="A334" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -8286,7 +8703,7 @@
         <v>543</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
@@ -8438,6 +8855,11 @@
       <c r="H382" s="5"/>
     </row>
     <row r="383" spans="1:8" ht="15" thickBot="1">
+      <c r="A383" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
@@ -8445,454 +8867,931 @@
       <c r="H383" s="5"/>
     </row>
     <row r="384" spans="1:8" ht="15" thickBot="1">
-      <c r="D384" s="5"/>
+      <c r="A384" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D384" s="8"/>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
     </row>
-    <row r="385" spans="4:8" ht="15" thickBot="1">
-      <c r="D385" s="5"/>
+    <row r="385" spans="1:8" ht="15" thickBot="1">
+      <c r="A385" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D385" s="8"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
     </row>
-    <row r="386" spans="4:8" ht="15" thickBot="1">
-      <c r="D386" s="5"/>
+    <row r="386" spans="1:8" ht="15" thickBot="1">
+      <c r="A386" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D386" s="8"/>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
     </row>
-    <row r="387" spans="4:8" ht="15" thickBot="1">
-      <c r="D387" s="5"/>
+    <row r="387" spans="1:8" ht="15" thickBot="1">
+      <c r="A387" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D387" s="8"/>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="4:8" ht="15" thickBot="1">
-      <c r="D388" s="5"/>
+    <row r="388" spans="1:8" ht="15" thickBot="1">
+      <c r="A388" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D388" s="8"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
     </row>
-    <row r="389" spans="4:8" ht="15" thickBot="1">
-      <c r="D389" s="5"/>
+    <row r="389" spans="1:8" ht="15" thickBot="1">
+      <c r="A389" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D389" s="8"/>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
     </row>
-    <row r="390" spans="4:8" ht="15" thickBot="1">
-      <c r="D390" s="5"/>
+    <row r="390" spans="1:8" ht="15" thickBot="1">
+      <c r="A390" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D390" s="8"/>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
     </row>
-    <row r="391" spans="4:8" ht="15" thickBot="1">
-      <c r="D391" s="5"/>
+    <row r="391" spans="1:8" ht="15" thickBot="1">
+      <c r="A391" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D391" s="8"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
     </row>
-    <row r="392" spans="4:8" ht="15" thickBot="1">
-      <c r="D392" s="5"/>
+    <row r="392" spans="1:8" ht="15" thickBot="1">
+      <c r="A392" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D392" s="8"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
     </row>
-    <row r="393" spans="4:8" ht="15" thickBot="1">
-      <c r="D393" s="5"/>
+    <row r="393" spans="1:8" ht="15" thickBot="1">
+      <c r="A393" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D393" s="8"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
     </row>
-    <row r="394" spans="4:8" ht="15" thickBot="1">
-      <c r="D394" s="5"/>
+    <row r="394" spans="1:8" ht="15" thickBot="1">
+      <c r="A394" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D394" s="8"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
     </row>
-    <row r="395" spans="4:8" ht="15" thickBot="1">
-      <c r="D395" s="5"/>
+    <row r="395" spans="1:8" ht="15" thickBot="1">
+      <c r="A395" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D395" s="8"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
     </row>
-    <row r="396" spans="4:8" ht="15" thickBot="1">
-      <c r="D396" s="5"/>
+    <row r="396" spans="1:8" ht="15" thickBot="1">
+      <c r="A396" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D396" s="8"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
     </row>
-    <row r="397" spans="4:8" ht="15" thickBot="1">
-      <c r="D397" s="5"/>
+    <row r="397" spans="1:8" ht="15" thickBot="1">
+      <c r="A397" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D397" s="8"/>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
     </row>
-    <row r="398" spans="4:8" ht="15" thickBot="1">
-      <c r="D398" s="5"/>
+    <row r="398" spans="1:8" ht="15" thickBot="1">
+      <c r="A398" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D398" s="8"/>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
     </row>
-    <row r="399" spans="4:8" ht="15" thickBot="1">
-      <c r="D399" s="5"/>
+    <row r="399" spans="1:8" ht="15" thickBot="1">
+      <c r="A399" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D399" s="8"/>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
     </row>
-    <row r="400" spans="4:8" ht="15" thickBot="1">
-      <c r="D400" s="5"/>
+    <row r="400" spans="1:8" ht="17.5" customHeight="1" thickBot="1">
+      <c r="A400" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D400" s="8"/>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
     </row>
-    <row r="401" spans="4:8" ht="15" thickBot="1">
-      <c r="D401" s="5"/>
+    <row r="401" spans="1:8" ht="15" thickBot="1">
+      <c r="A401" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D401" s="8"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
-      <c r="H401" s="2"/>
-    </row>
-    <row r="402" spans="4:8" ht="15" thickBot="1">
-      <c r="D402" s="5"/>
+      <c r="H401" s="5"/>
+    </row>
+    <row r="402" spans="1:8" ht="15" thickBot="1">
+      <c r="A402" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D402" s="8"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
-    </row>
-    <row r="403" spans="4:8" ht="15" thickBot="1">
-      <c r="D403" s="5"/>
+      <c r="H402" s="2"/>
+    </row>
+    <row r="403" spans="1:8" ht="15" thickBot="1">
+      <c r="A403" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D403" s="8"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
-      <c r="H403" s="5"/>
-    </row>
-    <row r="404" spans="4:8" ht="15" thickBot="1">
-      <c r="D404" s="5"/>
+    </row>
+    <row r="404" spans="1:8" ht="15" thickBot="1">
+      <c r="A404" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D404" s="8"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="4:8" ht="15" thickBot="1">
-      <c r="D405" s="5"/>
+    <row r="405" spans="1:8" ht="15" thickBot="1">
+      <c r="A405" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D405" s="8"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="4:8" ht="15" thickBot="1">
-      <c r="D406" s="5"/>
+    <row r="406" spans="1:8" ht="15" thickBot="1">
+      <c r="A406" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D406" s="8"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="4:8" ht="15" thickBot="1">
-      <c r="D407" s="5"/>
+    <row r="407" spans="1:8" ht="15" thickBot="1">
+      <c r="A407" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D407" s="8"/>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="4:8" ht="15" thickBot="1">
-      <c r="D408" s="5"/>
+    <row r="408" spans="1:8" ht="15" thickBot="1">
+      <c r="A408" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D408" s="8"/>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="4:8" ht="15" thickBot="1">
-      <c r="D409" s="5"/>
+    <row r="409" spans="1:8" ht="15" thickBot="1">
+      <c r="A409" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D409" s="8"/>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="4:8" ht="15" thickBot="1">
-      <c r="D410" s="5"/>
+    <row r="410" spans="1:8" ht="15" thickBot="1">
+      <c r="A410" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D410" s="8"/>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="4:8" ht="15" thickBot="1">
-      <c r="D411" s="5"/>
+    <row r="411" spans="1:8" ht="15" thickBot="1">
+      <c r="A411" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D411" s="8"/>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="4:8" ht="15" thickBot="1">
-      <c r="D412" s="5"/>
+    <row r="412" spans="1:8" ht="15" thickBot="1">
+      <c r="A412" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D412" s="8"/>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="4:8" ht="15" thickBot="1">
-      <c r="D413" s="5"/>
+    <row r="413" spans="1:8" ht="15" thickBot="1">
+      <c r="A413" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D413" s="8"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="4:8" ht="15" thickBot="1">
-      <c r="D414" s="5"/>
+    <row r="414" spans="1:8" ht="15" thickBot="1">
+      <c r="A414" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D414" s="8"/>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="4:8" ht="15" thickBot="1">
-      <c r="D415" s="5"/>
+    <row r="415" spans="1:8" ht="15" thickBot="1">
+      <c r="A415" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D415" s="8"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
     </row>
-    <row r="416" spans="4:8" ht="15" thickBot="1">
-      <c r="D416" s="5"/>
+    <row r="416" spans="1:8" ht="15" thickBot="1">
+      <c r="A416" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D416" s="8"/>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
     </row>
-    <row r="417" spans="4:8" ht="15" thickBot="1">
-      <c r="D417" s="5"/>
+    <row r="417" spans="1:8" ht="15" thickBot="1">
+      <c r="A417" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D417" s="8"/>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
     </row>
-    <row r="418" spans="4:8" ht="15" thickBot="1">
-      <c r="D418" s="5"/>
+    <row r="418" spans="1:8" ht="15" thickBot="1">
+      <c r="A418" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D418" s="8"/>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
     </row>
-    <row r="419" spans="4:8" ht="15" thickBot="1">
-      <c r="D419" s="5"/>
+    <row r="419" spans="1:8" ht="15" thickBot="1">
+      <c r="A419" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" s="8"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
     </row>
-    <row r="420" spans="4:8" ht="15" thickBot="1">
-      <c r="D420" s="5"/>
+    <row r="420" spans="1:8" ht="15" thickBot="1">
+      <c r="A420" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D420" s="8"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
     </row>
-    <row r="421" spans="4:8" ht="15" thickBot="1">
-      <c r="D421" s="5"/>
+    <row r="421" spans="1:8" ht="15" thickBot="1">
+      <c r="A421" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D421" s="8"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
     </row>
-    <row r="422" spans="4:8" ht="15" thickBot="1">
-      <c r="D422" s="5"/>
+    <row r="422" spans="1:8" ht="15" thickBot="1">
+      <c r="A422" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D422" s="8"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
     </row>
-    <row r="423" spans="4:8" ht="15" thickBot="1">
-      <c r="D423" s="5"/>
+    <row r="423" spans="1:8" ht="15" thickBot="1">
+      <c r="A423" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D423" s="8"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
     </row>
-    <row r="424" spans="4:8" ht="15" thickBot="1">
-      <c r="D424" s="5"/>
+    <row r="424" spans="1:8" ht="15" thickBot="1">
+      <c r="A424" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D424" s="8"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
     </row>
-    <row r="425" spans="4:8" ht="15" thickBot="1">
-      <c r="D425" s="5"/>
+    <row r="425" spans="1:8" ht="15" thickBot="1">
+      <c r="A425" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D425" s="8"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
     </row>
-    <row r="426" spans="4:8" ht="15" thickBot="1">
-      <c r="D426" s="5"/>
+    <row r="426" spans="1:8" ht="15" thickBot="1">
+      <c r="A426" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D426" s="8"/>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
     </row>
-    <row r="427" spans="4:8" ht="15" thickBot="1">
-      <c r="D427" s="5"/>
+    <row r="427" spans="1:8" ht="15" thickBot="1">
+      <c r="A427" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D427" s="8"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
     </row>
-    <row r="428" spans="4:8" ht="15" thickBot="1">
-      <c r="D428" s="5"/>
+    <row r="428" spans="1:8" ht="15" thickBot="1">
+      <c r="A428" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D428" s="8"/>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
     </row>
-    <row r="429" spans="4:8" ht="15" thickBot="1">
-      <c r="D429" s="5"/>
+    <row r="429" spans="1:8" ht="15" thickBot="1">
+      <c r="A429" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D429" s="8"/>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
     </row>
-    <row r="430" spans="4:8" ht="15" thickBot="1">
-      <c r="D430" s="5"/>
+    <row r="430" spans="1:8" ht="15" thickBot="1">
+      <c r="A430" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D430" s="8"/>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
     </row>
-    <row r="431" spans="4:8" ht="15" thickBot="1">
-      <c r="D431" s="5"/>
+    <row r="431" spans="1:8" ht="15" thickBot="1">
+      <c r="A431" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D431" s="8"/>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
     </row>
-    <row r="432" spans="4:8" ht="15" thickBot="1">
-      <c r="D432" s="5"/>
+    <row r="432" spans="1:8" ht="15" thickBot="1">
+      <c r="A432" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B432" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C432" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D432" s="8"/>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5"/>
     </row>
-    <row r="433" spans="4:8" ht="15" thickBot="1">
-      <c r="D433" s="5"/>
+    <row r="433" spans="1:8" ht="15" thickBot="1">
+      <c r="A433" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D433" s="8"/>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
     </row>
-    <row r="434" spans="4:8" ht="15" thickBot="1">
-      <c r="D434" s="5"/>
+    <row r="434" spans="1:8" ht="15" thickBot="1">
+      <c r="A434" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D434" s="8"/>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5"/>
     </row>
-    <row r="435" spans="4:8" ht="15" thickBot="1">
-      <c r="D435" s="5"/>
+    <row r="435" spans="1:8" ht="15" thickBot="1">
+      <c r="A435" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D435" s="8"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
     </row>
-    <row r="436" spans="4:8" ht="15" thickBot="1">
-      <c r="D436" s="5"/>
+    <row r="436" spans="1:8" ht="15" thickBot="1">
+      <c r="A436" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D436" s="8"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5"/>
     </row>
-    <row r="437" spans="4:8" ht="15" thickBot="1">
-      <c r="D437" s="5"/>
+    <row r="437" spans="1:8" ht="15" thickBot="1">
+      <c r="D437" s="8"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
     </row>
-    <row r="438" spans="4:8" ht="15" thickBot="1">
-      <c r="D438" s="5"/>
+    <row r="438" spans="1:8" ht="15" thickBot="1">
+      <c r="D438" s="8"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5"/>
     </row>
-    <row r="439" spans="4:8" ht="15" thickBot="1">
-      <c r="D439" s="5"/>
+    <row r="439" spans="1:8" ht="15" thickBot="1">
+      <c r="D439" s="8"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
     </row>
-    <row r="440" spans="4:8" ht="15" thickBot="1">
-      <c r="D440" s="5"/>
+    <row r="440" spans="1:8" ht="15" thickBot="1">
+      <c r="D440" s="8"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
     </row>
-    <row r="441" spans="4:8" ht="15" thickBot="1">
-      <c r="D441" s="5"/>
+    <row r="441" spans="1:8" ht="15" thickBot="1">
+      <c r="D441" s="8"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
       <c r="G441" s="5"/>
       <c r="H441" s="5"/>
     </row>
-    <row r="442" spans="4:8" ht="15" thickBot="1">
-      <c r="D442" s="5"/>
+    <row r="442" spans="1:8" ht="15" thickBot="1">
+      <c r="D442" s="8"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5"/>
     </row>
-    <row r="443" spans="4:8" ht="15" thickBot="1">
-      <c r="D443" s="5"/>
+    <row r="443" spans="1:8" ht="15" thickBot="1">
+      <c r="D443" s="8"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5"/>
     </row>
-    <row r="444" spans="4:8" ht="15" thickBot="1">
-      <c r="D444" s="5"/>
+    <row r="444" spans="1:8" ht="15" thickBot="1">
+      <c r="D444" s="8"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5"/>
     </row>
-    <row r="445" spans="4:8" ht="15" thickBot="1">
-      <c r="D445" s="5"/>
+    <row r="445" spans="1:8" ht="15" thickBot="1">
+      <c r="D445" s="8"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5"/>
     </row>
-    <row r="446" spans="4:8" ht="15" thickBot="1">
-      <c r="D446" s="5"/>
+    <row r="446" spans="1:8" ht="15" thickBot="1">
+      <c r="D446" s="8"/>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5"/>
     </row>
-    <row r="447" spans="4:8" ht="15" thickBot="1">
-      <c r="D447" s="5"/>
+    <row r="447" spans="1:8" ht="15" thickBot="1">
+      <c r="D447" s="8"/>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5"/>
     </row>
-    <row r="448" spans="4:8" ht="15" thickBot="1">
-      <c r="D448" s="5"/>
+    <row r="448" spans="1:8" ht="15" thickBot="1">
+      <c r="D448" s="8"/>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
       <c r="G448" s="5"/>
@@ -8927,9 +9826,7 @@
       <c r="H452" s="5"/>
     </row>
     <row r="453" spans="4:8" ht="15" thickBot="1">
-      <c r="D453" s="5" t="s">
-        <v>552</v>
-      </c>
+      <c r="D453" s="5"/>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
@@ -9665,7 +10562,9 @@
     </row>
     <row r="558" spans="4:8" ht="15" thickBot="1">
       <c r="D558" s="5"/>
-      <c r="E558" s="5"/>
+      <c r="E558" s="5">
+        <v>78</v>
+      </c>
       <c r="F558" s="5"/>
       <c r="G558" s="5"/>
       <c r="H558" s="5"/>
@@ -9728,9 +10627,7 @@
     </row>
     <row r="567" spans="4:8" ht="15" thickBot="1">
       <c r="D567" s="5"/>
-      <c r="E567" s="5">
-        <v>78</v>
-      </c>
+      <c r="E567" s="5"/>
       <c r="F567" s="5"/>
       <c r="G567" s="5"/>
       <c r="H567" s="5"/>
@@ -9980,90 +10877,1166 @@
       <c r="G602" s="5"/>
       <c r="H602" s="5"/>
     </row>
-    <row r="603" spans="4:8" ht="15" thickBot="1">
-      <c r="D603" s="5"/>
-      <c r="E603" s="5"/>
-      <c r="F603" s="5"/>
-      <c r="G603" s="5"/>
-      <c r="H603" s="5"/>
-    </row>
-    <row r="604" spans="4:8" ht="15" thickBot="1">
-      <c r="D604" s="5"/>
-      <c r="E604" s="5"/>
-      <c r="F604" s="5"/>
-      <c r="G604" s="5"/>
-      <c r="H604" s="5"/>
-    </row>
-    <row r="605" spans="4:8" ht="15" thickBot="1">
-      <c r="D605" s="5"/>
-      <c r="E605" s="5"/>
-      <c r="F605" s="5"/>
-      <c r="G605" s="5"/>
-      <c r="H605" s="5"/>
-    </row>
-    <row r="606" spans="4:8" ht="15" thickBot="1">
-      <c r="D606" s="5"/>
-      <c r="E606" s="5"/>
-      <c r="F606" s="5"/>
-      <c r="G606" s="5"/>
-      <c r="H606" s="5"/>
-    </row>
-    <row r="607" spans="4:8" ht="15" thickBot="1">
-      <c r="D607" s="5"/>
-      <c r="E607" s="5"/>
-      <c r="F607" s="5"/>
-      <c r="G607" s="5"/>
-      <c r="H607" s="5"/>
-    </row>
-    <row r="608" spans="4:8" ht="15" thickBot="1">
-      <c r="D608" s="5"/>
-      <c r="E608" s="5"/>
-      <c r="F608" s="5"/>
-      <c r="G608" s="5"/>
-      <c r="H608" s="5"/>
-    </row>
-    <row r="609" spans="4:8" ht="15" thickBot="1">
-      <c r="D609" s="5"/>
-      <c r="E609" s="5"/>
-      <c r="F609" s="5"/>
-      <c r="G609" s="5"/>
-      <c r="H609" s="5"/>
-    </row>
-    <row r="610" spans="4:8" ht="15" thickBot="1">
-      <c r="D610" s="5"/>
-      <c r="E610" s="5"/>
-      <c r="F610" s="5"/>
-      <c r="G610" s="5"/>
-      <c r="H610" s="5"/>
-    </row>
-    <row r="611" spans="4:8" ht="15" thickBot="1">
-      <c r="D611" s="5"/>
-      <c r="E611" s="5"/>
-      <c r="F611" s="5"/>
-      <c r="G611" s="5"/>
-      <c r="H611" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B319">
-    <cfRule type="duplicateValues" dxfId="5" priority="355"/>
+  <conditionalFormatting sqref="A1:C383">
+    <cfRule type="duplicateValues" dxfId="8" priority="419"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C291">
-    <cfRule type="duplicateValues" dxfId="4" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C382">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="EF">
+  <conditionalFormatting sqref="C1:C383">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="EF">
       <formula>NOT(ISERROR(SEARCH("EF",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  <conditionalFormatting sqref="A1:C436">
+    <cfRule type="duplicateValues" dxfId="6" priority="444"/>
+    <cfRule type="containsText" dxfId="5" priority="445" operator="containsText" text="EF">
+      <formula>NOT(ISERROR(SEARCH("EF",A1)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C292:C294">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C382">
-    <cfRule type="duplicateValues" dxfId="0" priority="416"/>
+  <conditionalFormatting sqref="A384:C436">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="EF">
+      <formula>NOT(ISERROR(SEARCH("EF",A384)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAA543-691D-423D-85B2-CDB803206FC1}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:D75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1">
+      <c r="A14" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="A18" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1">
+      <c r="A19" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="A20" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1">
+      <c r="A22" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="A23" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1">
+      <c r="A24" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="A25" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1">
+      <c r="A26" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1">
+      <c r="A27" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="A29" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1">
+      <c r="A31" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1">
+      <c r="A34" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1">
+      <c r="A37" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1">
+      <c r="A39" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1">
+      <c r="A41" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1">
+      <c r="A42" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1">
+      <c r="A43" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1">
+      <c r="A44" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1">
+      <c r="A45" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1">
+      <c r="A47" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1">
+      <c r="A49" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1">
+      <c r="A52" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1">
+      <c r="A53" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1">
+      <c r="A54" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1">
+      <c r="A55" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1">
+      <c r="A56" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1">
+      <c r="A57" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1">
+      <c r="A58" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1">
+      <c r="A59" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1">
+      <c r="A60" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1">
+      <c r="A61" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1">
+      <c r="A62" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1">
+      <c r="A63" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1">
+      <c r="A64" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1">
+      <c r="A65" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1">
+      <c r="A66" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1">
+      <c r="A67" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1">
+      <c r="A68" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1">
+      <c r="A69" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1">
+      <c r="A70" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1">
+      <c r="A71" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1">
+      <c r="A72" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1">
+      <c r="A73" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1">
+      <c r="A74" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1">
+      <c r="A75" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>